--- a/xlsx/上海人民出版社_intext.xlsx
+++ b/xlsx/上海人民出版社_intext.xlsx
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%B9%E8%88%88%E8%B7%AF</t>
   </si>
   <si>
-    <t>紹興路</t>
+    <t>绍兴路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7%E4%BA%BA%E6%B0%91%E7%BE%8E%E6%9C%AF%E5%87%BA%E7%89%88%E7%A4%BE</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%9F%E5%8D%97%E6%A9%9F%E5%99%A8%E8%A3%BD%E9%80%A0%E7%B8%BD%E5%B1%80</t>
   </si>
   <si>
-    <t>江南機器製造總局</t>
+    <t>江南机器制造总局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%AB%E5%8F%91%E6%B4%8B%E8%A1%8C</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7%E5%B8%82_(%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B)</t>
   </si>
   <si>
-    <t>上海市 (中華民國)</t>
+    <t>上海市 (中华民国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%B9%A6%E5%B1%80</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%A9%E7%A4%BE</t>
   </si>
   <si>
-    <t>復社</t>
+    <t>复社</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7%E8%AF%91%E6%96%87%E5%87%BA%E7%89%88%E7%A4%BE</t>
@@ -497,7 +497,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%B1%E7%B4%99</t>
   </si>
   <si>
-    <t>報紙</t>
+    <t>报纸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%88%B7</t>
@@ -2153,7 +2153,7 @@
         <v>8</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" t="s">
         <v>4</v>

--- a/xlsx/上海人民出版社_intext.xlsx
+++ b/xlsx/上海人民出版社_intext.xlsx
@@ -29,7 +29,7 @@
     <t>上海</t>
   </si>
   <si>
-    <t>政策_政策_政治_上海人民出版社</t>
+    <t>体育运动_体育运动_种族歧视_上海人民出版社</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%BB%BA%E4%B8%AD%E8%B7%AF_(%E4%B8%8A%E6%B5%B7)</t>
